--- a/poi-generated-file.xlsx
+++ b/poi-generated-file.xlsx
@@ -102,10 +102,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.65625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.1484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.15625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.74609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -130,7 +130,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>33837.42171271991</v>
+        <v>33837.8552143287</v>
       </c>
       <c r="D2" t="n">
         <v>1200000.0</v>
@@ -144,7 +144,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>24061.421712719908</v>
+        <v>24061.855214328705</v>
       </c>
       <c r="D3" t="n">
         <v>1500000.0</v>
@@ -158,7 +158,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>31915.421712719908</v>
+        <v>31915.855214328705</v>
       </c>
       <c r="D4" t="n">
         <v>1800000.0</v>
